--- a/public_html/export/packet-booking.xlsx
+++ b/public_html/export/packet-booking.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>Id</t>
   </si>
@@ -113,91 +113,121 @@
     <t>Accounting Remarks</t>
   </si>
   <si>
+    <t>awb001</t>
+  </si>
+  <si>
+    <t>2023-02-09</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Ankleshwaar</t>
+  </si>
+  <si>
+    <t>hello@yopmail.com</t>
+  </si>
+  <si>
+    <t>QQQQQ</t>
+  </si>
+  <si>
+    <t>FFFF</t>
+  </si>
+  <si>
+    <t>DOX</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>awb002</t>
+  </si>
+  <si>
+    <t>VEN1011212</t>
+  </si>
+  <si>
+    <t>2023-05-12</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>test 4</t>
+  </si>
+  <si>
+    <t>ANKLESHWAR</t>
+  </si>
+  <si>
+    <t>GUJARAT</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Ankleshwar</t>
+  </si>
+  <si>
+    <t>jatin@yopmail.com</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Hello Patel</t>
+  </si>
+  <si>
+    <t>Borbhatha</t>
+  </si>
+  <si>
+    <t>Borbhatha2</t>
+  </si>
+  <si>
+    <t>Borbhatha 3</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>Midland</t>
+  </si>
+  <si>
+    <t>hfgdsfghsd</t>
+  </si>
+  <si>
+    <t>ICE 2</t>
+  </si>
+  <si>
+    <t>INV002</t>
+  </si>
+  <si>
+    <t>Testing description</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>Test Remark</t>
+  </si>
+  <si>
+    <t>Accounting remarks</t>
+  </si>
+  <si>
+    <t>awb003</t>
+  </si>
+  <si>
     <t>awb004</t>
   </si>
   <si>
     <t>VEN00515</t>
   </si>
   <si>
-    <t>2023-05-12</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>test 1</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>ANKLESHWAR</t>
-  </si>
-  <si>
-    <t>GUJARAT</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t>Ankleshwar</t>
-  </si>
-  <si>
-    <t>jatin@yopmail.com</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>Hello Patel</t>
-  </si>
-  <si>
-    <t>Borbhatha</t>
-  </si>
-  <si>
-    <t>Borbhatha2</t>
-  </si>
-  <si>
-    <t>Borbhatha 3</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>Midland</t>
-  </si>
-  <si>
-    <t>hello@yopmail.com</t>
-  </si>
-  <si>
-    <t>hfgdsfghsd</t>
-  </si>
-  <si>
-    <t>ICE 2</t>
-  </si>
-  <si>
-    <t>DOX</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>INV002</t>
-  </si>
-  <si>
-    <t>Testing description</t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>Test Remark</t>
-  </si>
-  <si>
-    <t>Accounting remarks</t>
   </si>
 </sst>
 </file>
@@ -533,7 +563,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AU2"/>
+  <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,140 +721,569 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>39300</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N2" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2">
-        <v>393001</v>
-      </c>
-      <c r="L2">
-        <v>6</v>
-      </c>
-      <c r="M2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" t="s">
-        <v>42</v>
       </c>
       <c r="O2">
         <v>9510965177</v>
       </c>
       <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2">
+        <v>12</v>
+      </c>
+      <c r="R2">
+        <v>13</v>
+      </c>
+      <c r="S2">
+        <v>14</v>
+      </c>
+      <c r="T2">
+        <v>15</v>
+      </c>
+      <c r="U2">
+        <v>16</v>
+      </c>
+      <c r="V2">
+        <v>17</v>
+      </c>
+      <c r="W2">
+        <v>18</v>
+      </c>
+      <c r="X2">
+        <v>19</v>
+      </c>
+      <c r="Y2">
+        <v>20</v>
+      </c>
+      <c r="Z2">
+        <v>21</v>
+      </c>
+      <c r="AA2">
+        <v>4</v>
+      </c>
+      <c r="AB2">
+        <v>23</v>
+      </c>
+      <c r="AC2">
+        <v>24</v>
+      </c>
+      <c r="AD2">
+        <v>25</v>
+      </c>
+      <c r="AE2">
+        <v>26</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2">
+        <v>29</v>
+      </c>
+      <c r="AI2">
+        <v>30</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL2">
+        <v>31</v>
+      </c>
+      <c r="AM2">
+        <v>32</v>
+      </c>
+      <c r="AN2">
+        <v>33</v>
+      </c>
+      <c r="AO2">
+        <v>34</v>
+      </c>
+      <c r="AP2">
+        <v>65</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR2">
+        <v>36</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT2">
+        <v>37</v>
+      </c>
+      <c r="AU2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="Q2">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>393001</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3">
+        <v>9510965177</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3">
         <v>123456789</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S3" t="s">
         <v>18</v>
       </c>
-      <c r="T2">
+      <c r="T3">
         <v>252525251414</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U3" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3">
+        <v>393002</v>
+      </c>
+      <c r="AA3">
+        <v>7</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3">
+        <v>9510965177</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF3">
+        <v>124584545454</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI3">
+        <v>152145214521452</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN3">
+        <v>12</v>
+      </c>
+      <c r="AO3">
+        <v>1500</v>
+      </c>
+      <c r="AP3">
+        <v>1500</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR3">
+        <v>3000</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="V2" t="s">
+      <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="W2" t="s">
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
         <v>46</v>
       </c>
-      <c r="X2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
         <v>48</v>
       </c>
-      <c r="Z2">
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>393001</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4">
+        <v>9510965177</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4">
+        <v>123456789</v>
+      </c>
+      <c r="R4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4">
+        <v>252525251414</v>
+      </c>
+      <c r="U4" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" t="s">
+        <v>55</v>
+      </c>
+      <c r="X4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4">
         <v>393002</v>
       </c>
-      <c r="AA2">
+      <c r="AA4">
+        <v>7</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4">
+        <v>9510965177</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF4">
+        <v>124584545454</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI4">
+        <v>152145214521452</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN4">
+        <v>12</v>
+      </c>
+      <c r="AO4">
+        <v>1500</v>
+      </c>
+      <c r="AP4">
+        <v>1500</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR4">
+        <v>3000</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>393001</v>
+      </c>
+      <c r="L5">
         <v>6</v>
       </c>
-      <c r="AB2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD2">
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5">
         <v>9510965177</v>
       </c>
-      <c r="AE2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF2">
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5">
+        <v>123456789</v>
+      </c>
+      <c r="R5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5">
+        <v>252525251414</v>
+      </c>
+      <c r="U5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" t="s">
+        <v>54</v>
+      </c>
+      <c r="W5" t="s">
+        <v>55</v>
+      </c>
+      <c r="X5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z5">
+        <v>393002</v>
+      </c>
+      <c r="AA5">
+        <v>6</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD5">
+        <v>9510965177</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF5">
         <v>124584545454</v>
       </c>
-      <c r="AG2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI2">
+      <c r="AG5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI5">
         <v>152145214521452</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN2">
+      <c r="AJ5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN5">
         <v>12</v>
       </c>
-      <c r="AO2">
+      <c r="AO5">
         <v>1500</v>
       </c>
-      <c r="AP2">
+      <c r="AP5">
         <v>1500</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR2">
+      <c r="AQ5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR5">
         <v>3000</v>
       </c>
-      <c r="AS2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>60</v>
+      <c r="AS5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/public_html/export/packet-booking.xlsx
+++ b/public_html/export/packet-booking.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
   <si>
     <t>Id</t>
   </si>
@@ -1455,6 +1455,102 @@
   </si>
   <si>
     <t>dffsfds</t>
+  </si>
+  <si>
+    <t>8730Z7742546749</t>
+  </si>
+  <si>
+    <t>2023-05-03T20:09</t>
+  </si>
+  <si>
+    <t>931B70614456127</t>
+  </si>
+  <si>
+    <t>2023-05-03T20:12</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>hgdjgasjdg</t>
+  </si>
+  <si>
+    <t>hsdjha</t>
+  </si>
+  <si>
+    <t>sdhj</t>
+  </si>
+  <si>
+    <t>sdad</t>
+  </si>
+  <si>
+    <t>xcx</t>
+  </si>
+  <si>
+    <t>sunilgupta4417@gmail.com</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>sdsad</t>
+  </si>
+  <si>
+    <t>wwq</t>
+  </si>
+  <si>
+    <t>23dsfsf</t>
+  </si>
+  <si>
+    <t>dsfds</t>
+  </si>
+  <si>
+    <t>dss</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>13331G287871379</t>
+  </si>
+  <si>
+    <t>VEN1018787</t>
+  </si>
+  <si>
+    <t>2023-05-04</t>
+  </si>
+  <si>
+    <t>Address12</t>
+  </si>
+  <si>
+    <t>sss</t>
+  </si>
+  <si>
+    <t>test@yopmail.com</t>
+  </si>
+  <si>
+    <t>testC</t>
+  </si>
+  <si>
+    <t>add1</t>
+  </si>
+  <si>
+    <t>aff2</t>
+  </si>
+  <si>
+    <t>dd3</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>test2@yopmail.com</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>...Accounting Remarks</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1890,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AX70"/>
+  <dimension ref="A1:AX73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -10395,6 +10491,372 @@
         <v>60</v>
       </c>
       <c r="AX70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:50">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>480</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71" t="s">
+        <v>481</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71" t="s">
+        <v>160</v>
+      </c>
+      <c r="G71">
+        <v>999999</v>
+      </c>
+      <c r="H71" t="s">
+        <v>115</v>
+      </c>
+      <c r="I71" t="s">
+        <v>115</v>
+      </c>
+      <c r="J71" t="s">
+        <v>112</v>
+      </c>
+      <c r="K71">
+        <v>110092</v>
+      </c>
+      <c r="L71" t="s">
+        <v>41</v>
+      </c>
+      <c r="M71" t="s">
+        <v>115</v>
+      </c>
+      <c r="N71" t="s">
+        <v>115</v>
+      </c>
+      <c r="O71">
+        <v>8545</v>
+      </c>
+      <c r="P71" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q71">
+        <v>98688655</v>
+      </c>
+      <c r="R71"/>
+      <c r="S71" t="s">
+        <v>112</v>
+      </c>
+      <c r="T71"/>
+      <c r="U71" t="s">
+        <v>170</v>
+      </c>
+      <c r="V71">
+        <v>9999</v>
+      </c>
+      <c r="W71" t="s">
+        <v>113</v>
+      </c>
+      <c r="X71" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z71">
+        <v>411111</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD71">
+        <v>9999</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF71"/>
+      <c r="AG71"/>
+      <c r="AH71"/>
+      <c r="AI71"/>
+      <c r="AJ71" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK71"/>
+      <c r="AL71"/>
+      <c r="AM71"/>
+      <c r="AN71">
+        <v>0.3</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71"/>
+      <c r="AQ71"/>
+      <c r="AR71"/>
+      <c r="AS71"/>
+      <c r="AT71"/>
+      <c r="AU71"/>
+      <c r="AV71" t="s">
+        <v>155</v>
+      </c>
+      <c r="AW71" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:50">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>482</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72" t="s">
+        <v>483</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" t="s">
+        <v>484</v>
+      </c>
+      <c r="G72">
+        <v>76528132</v>
+      </c>
+      <c r="H72" t="s">
+        <v>485</v>
+      </c>
+      <c r="I72" t="s">
+        <v>486</v>
+      </c>
+      <c r="J72" t="s">
+        <v>487</v>
+      </c>
+      <c r="K72">
+        <v>110093</v>
+      </c>
+      <c r="L72" t="s">
+        <v>41</v>
+      </c>
+      <c r="M72" t="s">
+        <v>488</v>
+      </c>
+      <c r="N72" t="s">
+        <v>489</v>
+      </c>
+      <c r="O72">
+        <v>23456789</v>
+      </c>
+      <c r="P72" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q72">
+        <v>123123</v>
+      </c>
+      <c r="R72" t="s">
+        <v>491</v>
+      </c>
+      <c r="S72" t="s">
+        <v>492</v>
+      </c>
+      <c r="T72">
+        <v>28937192863</v>
+      </c>
+      <c r="U72" t="s">
+        <v>493</v>
+      </c>
+      <c r="V72">
+        <v>13221123</v>
+      </c>
+      <c r="W72" t="s">
+        <v>494</v>
+      </c>
+      <c r="X72">
+        <v>3213</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z72">
+        <v>23123</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>496</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>497</v>
+      </c>
+      <c r="AD72">
+        <v>2341223324132</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF72"/>
+      <c r="AG72"/>
+      <c r="AH72"/>
+      <c r="AI72"/>
+      <c r="AJ72" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK72"/>
+      <c r="AL72"/>
+      <c r="AM72"/>
+      <c r="AN72">
+        <v>0.3</v>
+      </c>
+      <c r="AO72">
+        <v>167</v>
+      </c>
+      <c r="AP72"/>
+      <c r="AQ72"/>
+      <c r="AR72"/>
+      <c r="AS72"/>
+      <c r="AT72"/>
+      <c r="AU72"/>
+      <c r="AV72" t="s">
+        <v>155</v>
+      </c>
+      <c r="AW72" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:50">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>498</v>
+      </c>
+      <c r="C73" t="s">
+        <v>499</v>
+      </c>
+      <c r="D73" t="s">
+        <v>500</v>
+      </c>
+      <c r="E73" t="s">
+        <v>203</v>
+      </c>
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" t="s">
+        <v>501</v>
+      </c>
+      <c r="J73" t="s">
+        <v>9</v>
+      </c>
+      <c r="K73">
+        <v>110092</v>
+      </c>
+      <c r="L73" t="s">
+        <v>41</v>
+      </c>
+      <c r="M73" t="s">
+        <v>502</v>
+      </c>
+      <c r="N73" t="s">
+        <v>502</v>
+      </c>
+      <c r="O73">
+        <v>8586858485</v>
+      </c>
+      <c r="P73" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q73">
+        <v>9636666</v>
+      </c>
+      <c r="R73">
+        <v>66666666</v>
+      </c>
+      <c r="S73">
+        <v>666666</v>
+      </c>
+      <c r="T73">
+        <v>6666666</v>
+      </c>
+      <c r="U73" t="s">
+        <v>504</v>
+      </c>
+      <c r="V73" t="s">
+        <v>504</v>
+      </c>
+      <c r="W73" t="s">
+        <v>505</v>
+      </c>
+      <c r="X73" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z73">
+        <v>110092</v>
+      </c>
+      <c r="AA73">
+        <v>1</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>508</v>
+      </c>
+      <c r="AD73">
+        <v>9696969696</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>509</v>
+      </c>
+      <c r="AF73"/>
+      <c r="AG73"/>
+      <c r="AH73"/>
+      <c r="AI73"/>
+      <c r="AJ73" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>510</v>
+      </c>
+      <c r="AL73"/>
+      <c r="AM73"/>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73"/>
+      <c r="AP73"/>
+      <c r="AQ73"/>
+      <c r="AR73"/>
+      <c r="AS73"/>
+      <c r="AT73" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>511</v>
+      </c>
+      <c r="AV73"/>
+      <c r="AW73"/>
+      <c r="AX73" t="b">
         <v>0</v>
       </c>
     </row>
